--- a/data/trans_bre/P32B-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P32B-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P32B-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P32B-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -630,32 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,03</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,56</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>51,71%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,56%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-93,2%</t>
         </is>
       </c>
     </row>
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,47; 6,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,11; 2,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,22; -0,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,12; 71,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-1,67</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-2,92</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,1</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -768,12 +768,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,06; -0,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,71; -1,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,36; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -825,17 +825,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,41</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -845,17 +845,17 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-56,26%</t>
         </is>
       </c>
     </row>
@@ -873,17 +873,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,26; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,08; 0,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 57,5</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,23</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,01%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-80,56%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,76%</t>
         </is>
       </c>
     </row>
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,73; 2,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,32; -1,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,23; 0,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,0; 1,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -15,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,05</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,99</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,91</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1068,22 +1068,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,64; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,67; -1,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,95; -1,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 23,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>99,95%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-56,16%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,85%</t>
         </is>
       </c>
     </row>
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,78; 5,28</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,86; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,73; 1,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,02; 3,96</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 493,57</t>
         </is>
       </c>
     </row>
@@ -1225,17 +1225,17 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1245,17 +1245,17 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-59,54%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,68%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,19%</t>
         </is>
       </c>
     </row>
@@ -1273,17 +1273,17 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,81; 0,68</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,64; 2,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,01; 3,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1293,17 +1293,17 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,53; 53,07</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,23; 131,46</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,65; 254,7</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,55</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>267,98%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-76,86%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,71%</t>
         </is>
       </c>
     </row>
@@ -1368,22 +1368,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,16; 3,05</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,15; 0,1</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,95; -0,43</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,23; 3,34</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 68,37</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,18</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,81%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-76,0%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,31%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,15%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,49; 1,15</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,12; -1,26</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,99; -0,19</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,47; 0,88</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,24; 199,37</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,95; -46,64</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,36; -1,93</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,7; 62,47</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P32B-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P32B-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-8,62</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,56</t>
+          <t>-2,91</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-82,45%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-93,2%</t>
+          <t>-94,08%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,47; -4,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,22; -0,44</t>
+          <t>-8,27; -0,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -26,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 0,0</t>
+          <t>-5,98; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,41</t>
+          <t>-2,38</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-56,26%</t>
+          <t>-56,03%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 0,61</t>
+          <t>-6,07; 0,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 57,5</t>
+          <t>-100,0; 58,47</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-4,23</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-80,56%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-22,76%</t>
+          <t>-20,15%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,32; -1,75</t>
+          <t>-2,43; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 1,39</t>
+          <t>-1,86; 1,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -15,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,91</t>
+          <t>5,13</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,99</t>
+          <t>0,0; 24,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>3,79%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 3,96</t>
+          <t>-2,94; 3,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 493,57</t>
+          <t>-100,0; 497,18</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>-20,31%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 3,57</t>
+          <t>-3,59; 2,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-82,65; 254,7</t>
+          <t>-94,5; 174,43</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>44,71%</t>
+          <t>50,51%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 3,34</t>
+          <t>-1,2; 3,6</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-20,15%</t>
+          <t>-32,79%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 0,88</t>
+          <t>-1,88; 0,54</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-61,7; 62,47</t>
+          <t>-71,06; 37,94</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P32B-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P32B-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 6,94</t>
+          <t>-2,4; 7,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,47; -4,06</t>
+          <t>-14,27; -3,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 2,19</t>
+          <t>-8,61; 2,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,27; -0,5</t>
+          <t>-8,54; -0,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,12 +693,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -26,73</t>
+          <t>-100,0; -9,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-83,12; 71,45</t>
+          <t>-83,92; 58,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,12 +768,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,06; -0,39</t>
+          <t>-3,8; -0,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,71; -1,26</t>
+          <t>-6,22; -1,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 0,0</t>
+          <t>-5,11; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -873,17 +873,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,03</t>
+          <t>0,0; 3,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 0,0</t>
+          <t>-1,72; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 0,59</t>
+          <t>-5,79; 0,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 58,47</t>
+          <t>-100,0; 61,18</t>
         </is>
       </c>
     </row>
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 2,23</t>
+          <t>-2,53; 2,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 0,0</t>
+          <t>-2,42; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 0,0</t>
+          <t>-3,35; 0,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 1,42</t>
+          <t>-2,26; 1,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1068,22 +1068,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 0,0</t>
+          <t>-3,81; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,67; -1,49</t>
+          <t>-8,47; -1,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,95; -1,0</t>
+          <t>-8,77; -1,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,81</t>
+          <t>0,0; 27,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 5,28</t>
+          <t>-1,79; 4,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 0,0</t>
+          <t>-3,15; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 1,31</t>
+          <t>-4,05; 1,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 3,97</t>
+          <t>-2,62; 3,73</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,14 +1203,14 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 497,18</t>
+          <t>-100,0; 591,2</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1273,17 +1273,17 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 0,68</t>
+          <t>-4,93; 0,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 2,08</t>
+          <t>-3,56; 1,89</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 2,64</t>
+          <t>-3,64; 2,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1293,17 +1293,17 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-92,53; 53,07</t>
+          <t>-92,12; 73,81</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-79,23; 131,46</t>
+          <t>-78,87; 121,41</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-94,5; 174,43</t>
+          <t>-93,2; 183,74</t>
         </is>
       </c>
     </row>
@@ -1368,22 +1368,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 3,05</t>
+          <t>-0,18; 3,04</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 0,1</t>
+          <t>-3,15; 0,09</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-2,95; -0,43</t>
+          <t>-2,81; -0,43</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 3,6</t>
+          <t>-1,17; 3,79</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 68,37</t>
+          <t>-100,0; 215,87</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 1,15</t>
+          <t>-0,54; 1,13</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,12; -1,26</t>
+          <t>-3,25; -1,28</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,99; -0,19</t>
+          <t>-2,0; -0,17</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 0,54</t>
+          <t>-1,8; 0,53</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-48,24; 199,37</t>
+          <t>-55,96; 229,68</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-89,95; -46,64</t>
+          <t>-90,83; -51,14</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-75,36; -1,93</t>
+          <t>-77,36; -6,63</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-71,06; 37,94</t>
+          <t>-69,88; 38,15</t>
         </is>
       </c>
     </row>
